--- a/data/predictions/gender/gay_marr/leveled/republican.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/republican.xlsx
@@ -745,13 +745,13 @@
         <v>0.1179868552645255</v>
       </c>
       <c r="G34">
-        <v>0.1124805719938212</v>
+        <v>0.1686714430783634</v>
       </c>
       <c r="I34">
         <v>0.3937944926428754</v>
       </c>
       <c r="J34">
-        <v>0.3203577647109872</v>
+        <v>0.210371348110646</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -765,13 +765,13 @@
         <v>0.1063388709135833</v>
       </c>
       <c r="G35">
-        <v>0.09721872650317134</v>
+        <v>0.1389276546187001</v>
       </c>
       <c r="I35">
         <v>0.4272728705760553</v>
       </c>
       <c r="J35">
-        <v>0.3555150427329535</v>
+        <v>0.3084555648976716</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -785,13 +785,13 @@
         <v>0.09653073478544268</v>
       </c>
       <c r="G36">
-        <v>0.08140703236437354</v>
+        <v>0.1138674593817601</v>
       </c>
       <c r="I36">
         <v>0.4652203429571196</v>
       </c>
       <c r="J36">
-        <v>0.3899944023003074</v>
+        <v>0.2721997140652129</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -805,13 +805,13 @@
         <v>0.08768458633887884</v>
       </c>
       <c r="G37">
-        <v>0.0655873220563612</v>
+        <v>0.06960461753315395</v>
       </c>
       <c r="I37">
         <v>0.5021495898209162</v>
       </c>
       <c r="J37">
-        <v>0.4245515974167057</v>
+        <v>0.4129331942459243</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -825,13 +825,13 @@
         <v>0.0793414251974832</v>
       </c>
       <c r="G38">
-        <v>0.04976749488170001</v>
+        <v>0.09071587623852227</v>
       </c>
       <c r="I38">
         <v>0.5393108262334022</v>
       </c>
       <c r="J38">
-        <v>0.4590998529185639</v>
+        <v>0.3593110195018178</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -845,13 +845,13 @@
         <v>0.07126125726692131</v>
       </c>
       <c r="G39">
-        <v>0.03394766600325574</v>
+        <v>0.0417751224057592</v>
       </c>
       <c r="I39">
         <v>0.5764192068199553</v>
       </c>
       <c r="J39">
-        <v>0.4936491380449472</v>
+        <v>0.4338078612963049</v>
       </c>
     </row>
   </sheetData>
